--- a/inst/apps/MNcalc/external/RMD/files/Instructions.xlsx
+++ b/inst/apps/MNcalc/external/RMD/files/Instructions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tetratechinc-my.sharepoint.com/personal/ben_block_tetratech_com/Documents/GitHub/MNcalc/inst/apps/MNcalc/external/RMD/files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\Documents\GitHub\MNcalc\inst\apps\MNcalc\external\RMD\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="11_F25DC773A252ABDACC1048C1615860685BDE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{97A80B16-13DA-4790-A2CB-B652D5A4EB9D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A67519-68C4-463D-BCBD-3E9B7898EB95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6360" yWindow="2460" windowWidth="21600" windowHeight="11295" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Subfolders" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="55">
   <si>
     <t>Folder</t>
   </si>
@@ -102,9 +102,6 @@
     <t>_IBI_RESULTS</t>
   </si>
   <si>
-    <t>IBI output for each sample. Includes metric values, metric scores, overall IBI scores and narratives.</t>
-  </si>
-  <si>
     <t>IBI_1markexcl</t>
   </si>
   <si>
@@ -187,6 +184,15 @@
   </si>
   <si>
     <t>results of flag calculations for all metrics and samples. Not all BCG models utilize flag metrics, in which case this output is a placeholder.</t>
+  </si>
+  <si>
+    <t>streamlined IBI output for each sample. Only includes the final IBI score (Index) and narrative.</t>
+  </si>
+  <si>
+    <t>IBI_4results_all</t>
+  </si>
+  <si>
+    <t>expanded IBI output for each sample. Includes metric values, metric scores, overall IBI scores and narratives.</t>
   </si>
 </sst>
 </file>
@@ -665,7 +671,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A54EEE83-0339-4CF1-8DD2-446A93C7614C}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B12"/>
     </sheetView>
   </sheetViews>
@@ -681,90 +687,90 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -774,13 +780,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFDA099A-2741-4740-906A-30DC7699D273}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="157" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
@@ -791,43 +801,51 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>24</v>
+      <c r="B2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>32</v>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
